--- a/public/sablon.xlsx
+++ b/public/sablon.xlsx
@@ -829,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -942,9 +942,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -990,149 +987,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,101 +1122,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU27"/>
+  <dimension ref="A1:BU26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,368 +1585,368 @@
     <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="64"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
+      <c r="AL1" s="116"/>
     </row>
     <row r="2" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="67"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="119"/>
     </row>
     <row r="3" spans="1:73" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71" t="s">
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="73"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="125"/>
     </row>
     <row r="4" spans="1:73" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="57" t="s">
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="57" t="s">
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="57" t="s">
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="80" t="s">
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="141"/>
+      <c r="AK4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" s="81"/>
+      <c r="AL4" s="133"/>
     </row>
     <row r="5" spans="1:73" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="83"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="142"/>
+      <c r="AG5" s="142"/>
+      <c r="AH5" s="142"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="135"/>
     </row>
     <row r="6" spans="1:73" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="92">
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="112">
         <v>1</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="102">
         <v>2</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="102">
         <v>3</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="102">
         <v>4</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="102">
         <v>5</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="102">
         <v>6</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="102">
         <v>7</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="102">
         <v>8</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="102">
         <v>9</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="102">
         <v>10</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="102">
         <v>11</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="102">
         <v>12</v>
       </c>
-      <c r="R6" s="60">
+      <c r="R6" s="102">
         <v>13</v>
       </c>
-      <c r="S6" s="60">
+      <c r="S6" s="102">
         <v>14</v>
       </c>
-      <c r="T6" s="60">
+      <c r="T6" s="102">
         <v>15</v>
       </c>
-      <c r="U6" s="60">
+      <c r="U6" s="102">
         <v>16</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="102">
         <v>17</v>
       </c>
-      <c r="W6" s="60">
+      <c r="W6" s="102">
         <v>18</v>
       </c>
-      <c r="X6" s="60">
+      <c r="X6" s="102">
         <v>19</v>
       </c>
-      <c r="Y6" s="60">
+      <c r="Y6" s="102">
         <v>20</v>
       </c>
-      <c r="Z6" s="60">
+      <c r="Z6" s="102">
         <v>21</v>
       </c>
-      <c r="AA6" s="60">
+      <c r="AA6" s="102">
         <v>22</v>
       </c>
-      <c r="AB6" s="60">
+      <c r="AB6" s="102">
         <v>23</v>
       </c>
-      <c r="AC6" s="60">
+      <c r="AC6" s="102">
         <v>24</v>
       </c>
-      <c r="AD6" s="60">
+      <c r="AD6" s="102">
         <v>25</v>
       </c>
-      <c r="AE6" s="60">
+      <c r="AE6" s="102">
         <v>26</v>
       </c>
-      <c r="AF6" s="60">
+      <c r="AF6" s="102">
         <v>27</v>
       </c>
-      <c r="AG6" s="60">
+      <c r="AG6" s="102">
         <v>28</v>
       </c>
-      <c r="AH6" s="60">
+      <c r="AH6" s="102">
         <v>29</v>
       </c>
-      <c r="AI6" s="60">
+      <c r="AI6" s="102">
         <v>30</v>
       </c>
-      <c r="AJ6" s="60">
+      <c r="AJ6" s="102">
         <v>31</v>
       </c>
-      <c r="AK6" s="94" t="s">
+      <c r="AK6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="95"/>
+      <c r="AL6" s="105"/>
     </row>
     <row r="7" spans="1:73" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="96"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="107"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
@@ -1992,37 +1995,37 @@
       <c r="E8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
       <c r="AK8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2036,38 +2039,38 @@
       <c r="C9" s="28"/>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="87"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="98"/>
       <c r="AL9" s="100"/>
     </row>
     <row r="10" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2075,38 +2078,38 @@
       <c r="B10" s="1"/>
       <c r="C10" s="30"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="52"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="99"/>
       <c r="AL10" s="101"/>
     </row>
@@ -2116,41 +2119,41 @@
       <c r="C11" s="30"/>
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="97" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AL11" s="98"/>
+      <c r="AL11" s="88"/>
     </row>
     <row r="12" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -2158,39 +2161,39 @@
       <c r="C12" s="30"/>
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="98"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="88"/>
     </row>
     <row r="13" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -2198,39 +2201,39 @@
       <c r="C13" s="30"/>
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="98"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="88"/>
     </row>
     <row r="14" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -2238,39 +2241,39 @@
       <c r="C14" s="29"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="98"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="88"/>
     </row>
     <row r="15" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
@@ -2278,39 +2281,39 @@
       <c r="C15" s="30"/>
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="98"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="88"/>
     </row>
     <row r="16" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -2318,526 +2321,488 @@
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="98"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="88"/>
     </row>
     <row r="17" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="34"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="98"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="54"/>
     </row>
-    <row r="18" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
       <c r="AJ18" s="52"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="98"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="33"/>
     </row>
-    <row r="19" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="33"/>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="97"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="110"/>
+      <c r="C21" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="80"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="95"/>
       <c r="AD22" s="19"/>
-      <c r="AE22" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="114"/>
-      <c r="AJ22" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="115"/>
+      <c r="AE22" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="78"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="95"/>
       <c r="AD23" s="19"/>
-      <c r="AE23" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK23" s="116"/>
-      <c r="AL23" s="117"/>
+      <c r="AE23" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="78"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108"/>
+      <c r="C24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="95"/>
       <c r="AD24" s="19"/>
-      <c r="AE24" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="117"/>
+      <c r="AE24" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="21"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
       <c r="AD25" s="19"/>
-      <c r="AE25" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="21"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="18"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="18"/>
-    </row>
-    <row r="27" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="136" t="s">
+      <c r="C26" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="139" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="26"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="P26:AC27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:O25"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="P21:AC25"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
+  <mergeCells count="77">
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="C1:AL1"/>
+    <mergeCell ref="C2:AL2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:AL3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="AC4:AJ4"/>
+    <mergeCell ref="AC5:AJ5"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="W6:W8"/>
     <mergeCell ref="X6:X8"/>
@@ -2853,39 +2818,35 @@
     <mergeCell ref="AH6:AH8"/>
     <mergeCell ref="AI6:AI8"/>
     <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C1:AL1"/>
-    <mergeCell ref="C2:AL2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:AL3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="AC4:AJ4"/>
-    <mergeCell ref="AC5:AJ5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="P20:AC24"/>
+    <mergeCell ref="AE20:AL20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:O24"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="P25:AC26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="C25:E25"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
